--- a/lab.xlsx
+++ b/lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengweishao/Astar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChengWeishao\Desktop\PathPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4467A-90B4-5B4F-9731-16FBA1B8E55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96373D7F-6B1E-42F4-9563-F1C8CEE9F5F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15860" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15855" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,13 +388,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746B783-5C25-5F43-9298-2C1B65524388}">
   <dimension ref="A1:BZ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="G18:L18"/>
+    <sheetView tabSelected="1" topLeftCell="BI7" workbookViewId="0">
+      <selection activeCell="BO18" sqref="BO18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -636,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -719,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
         <v>0</v>
@@ -764,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="1">
         <v>0</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2" s="1">
         <v>0</v>
@@ -872,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -955,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
         <v>0</v>
@@ -1000,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3" s="1">
         <v>0</v>
@@ -1108,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
@@ -1236,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -1302,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN4" s="1">
         <v>0</v>
@@ -1344,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1427,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
@@ -1472,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -1538,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5" s="1">
         <v>0</v>
@@ -1580,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
@@ -1708,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="1">
         <v>0</v>
@@ -1774,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6" s="1">
         <v>0</v>
@@ -1816,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="1">
         <v>0</v>
@@ -2010,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7" s="1">
         <v>0</v>
@@ -2052,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:78">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2135,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -2180,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
@@ -2246,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN8" s="1">
         <v>0</v>
@@ -2288,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:78">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -2416,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="1">
         <v>0</v>
@@ -2482,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9" s="1">
         <v>0</v>
@@ -2524,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:78">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2607,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -2652,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -2718,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
         <v>0</v>
@@ -2760,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:78">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
@@ -2888,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="1">
         <v>0</v>
@@ -2954,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN11" s="1">
         <v>0</v>
@@ -2996,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:78">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3079,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
@@ -3124,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="1">
         <v>0</v>
@@ -3190,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN12" s="1">
         <v>0</v>
@@ -3232,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:78">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1">
         <v>0</v>
@@ -3360,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="1">
         <v>0</v>
@@ -3426,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN13" s="1">
         <v>0</v>
@@ -3468,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:78">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3551,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
         <v>0</v>
@@ -3596,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="1">
         <v>0</v>
@@ -3662,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN14" s="1">
         <v>0</v>
@@ -3704,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:78">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
         <v>0</v>
@@ -3832,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="1">
         <v>0</v>
@@ -3898,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN15" s="1">
         <v>0</v>
@@ -3940,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:78">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>0</v>
@@ -4068,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
@@ -4134,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN16" s="1">
         <v>0</v>
@@ -4176,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:78">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
@@ -4304,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="1">
         <v>0</v>
@@ -4370,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN17" s="1">
         <v>0</v>
@@ -4412,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:78">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4429,28 +4423,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -4498,10 +4492,10 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>1</v>
@@ -4600,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
         <v>1</v>
@@ -4648,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:78">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4884,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:78">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5120,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:78">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5356,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:78">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5592,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:78">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5831,5 +5825,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChengWeishao\Desktop\PathPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96373D7F-6B1E-42F4-9563-F1C8CEE9F5F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D85205-4E3A-4F48-AE71-D527A74D0878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15855" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
   </bookViews>
@@ -386,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746B783-5C25-5F43-9298-2C1B65524388}">
-  <dimension ref="A1:BZ23"/>
+  <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI7" workbookViewId="0">
-      <selection activeCell="BO18" sqref="BO18"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BT17" sqref="BT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -629,8 +629,14 @@
       <c r="BZ1" s="1">
         <v>1</v>
       </c>
+      <c r="CA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -848,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="BU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2" s="1">
         <v>0</v>
@@ -863,10 +869,16 @@
         <v>0</v>
       </c>
       <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1084,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="BU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3" s="1">
         <v>0</v>
@@ -1099,10 +1111,16 @@
         <v>0</v>
       </c>
       <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1320,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="BU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4" s="1">
         <v>0</v>
@@ -1335,10 +1353,16 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1556,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5" s="1">
         <v>0</v>
@@ -1571,10 +1595,16 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1792,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" s="1">
         <v>0</v>
@@ -1807,10 +1837,16 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2028,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="BU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="1">
         <v>0</v>
@@ -2043,10 +2079,16 @@
         <v>0</v>
       </c>
       <c r="BZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2264,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" s="1">
         <v>0</v>
@@ -2279,10 +2321,16 @@
         <v>0</v>
       </c>
       <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2500,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="BU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9" s="1">
         <v>0</v>
@@ -2515,10 +2563,16 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2736,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="BU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="1">
         <v>0</v>
@@ -2751,10 +2805,16 @@
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2972,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11" s="1">
         <v>0</v>
@@ -2987,10 +3047,16 @@
         <v>0</v>
       </c>
       <c r="BZ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3208,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="BU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" s="1">
         <v>0</v>
@@ -3223,10 +3289,16 @@
         <v>0</v>
       </c>
       <c r="BZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3432,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="1">
         <v>1</v>
@@ -3450,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="BW13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY13" s="1">
         <v>1</v>
@@ -3461,8 +3533,14 @@
       <c r="BZ13" s="1">
         <v>1</v>
       </c>
+      <c r="CA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3695,10 +3773,16 @@
         <v>0</v>
       </c>
       <c r="BZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3931,10 +4015,16 @@
         <v>0</v>
       </c>
       <c r="BZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4167,10 +4257,16 @@
         <v>0</v>
       </c>
       <c r="BZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4403,10 +4499,16 @@
         <v>0</v>
       </c>
       <c r="BZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4618,13 +4720,13 @@
         <v>1</v>
       </c>
       <c r="BS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="1">
         <v>0</v>
       </c>
       <c r="BU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV18" s="1">
         <v>1</v>
@@ -4641,8 +4743,14 @@
       <c r="BZ18" s="1">
         <v>1</v>
       </c>
+      <c r="CA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4860,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="BU19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" s="1">
         <v>1</v>
@@ -4877,8 +4985,14 @@
       <c r="BZ19" s="1">
         <v>1</v>
       </c>
+      <c r="CA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5096,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="BU20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" s="1">
         <v>1</v>
@@ -5113,8 +5227,14 @@
       <c r="BZ20" s="1">
         <v>1</v>
       </c>
+      <c r="CA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5332,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BU21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV21" s="1">
         <v>1</v>
@@ -5349,8 +5469,14 @@
       <c r="BZ21" s="1">
         <v>1</v>
       </c>
+      <c r="CA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5568,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="BU22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV22" s="1">
         <v>1</v>
@@ -5585,16 +5711,22 @@
       <c r="BZ22" s="1">
         <v>1</v>
       </c>
+      <c r="CA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -5783,10 +5915,10 @@
         <v>1</v>
       </c>
       <c r="BN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="1">
         <v>1</v>
@@ -5819,6 +5951,4368 @@
         <v>1</v>
       </c>
       <c r="BZ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB41" s="1">
         <v>1</v>
       </c>
     </row>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChengWeishao\Desktop\PathPlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengweishao/PathPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D85205-4E3A-4F48-AE71-D527A74D0878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35505A95-2A5C-E44A-92BF-CFC896CBD2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15855" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15800" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,13 +388,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746B783-5C25-5F43-9298-2C1B65524388}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BT17" sqref="BT17"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BP23" sqref="BP23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="1">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="1">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="1">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="1">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="1">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="1">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="1">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="1">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="1">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="1">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="1">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="1">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH17" s="1">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4678,28 +4678,28 @@
         <v>1</v>
       </c>
       <c r="BE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="1">
         <v>1</v>
       </c>
       <c r="BH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="1">
         <v>1</v>
       </c>
       <c r="BK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" s="1">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5888,19 +5888,19 @@
         <v>1</v>
       </c>
       <c r="BE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="1">
         <v>1</v>
       </c>
       <c r="BH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="1">
         <v>1</v>
@@ -5915,22 +5915,22 @@
         <v>1</v>
       </c>
       <c r="BN23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23" s="1">
         <v>0</v>
       </c>
       <c r="BP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="1">
         <v>1</v>
       </c>
       <c r="BR23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="1">
         <v>1</v>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="1">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="BQ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24" s="1">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="1">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25" s="1">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR26" s="1">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="1">
         <v>0</v>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="1">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR27" s="1">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="1">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN28" s="1">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR28" s="1">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="BG29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH29" s="1">
         <v>0</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN29" s="1">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29" s="1">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30" s="1">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30" s="1">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30" s="1">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH31" s="1">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="1">
         <v>0</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="BQ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR31" s="1">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH32" s="1">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN32" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="BQ32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" s="1">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="BG33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33" s="1">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="1">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="BQ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR33" s="1">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH34" s="1">
         <v>0</v>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="1">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="BQ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR34" s="1">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH35" s="1">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="1">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="BQ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR35" s="1">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH36" s="1">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN36" s="1">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="BQ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR36" s="1">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH37" s="1">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="1">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="BQ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR37" s="1">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="BG38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH38" s="1">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" s="1">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BQ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR38" s="1">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH39" s="1">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BM39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" s="1">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BQ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR39" s="1">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BG40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40" s="1">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="1">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="BQ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR40" s="1">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80">
       <c r="A41" s="1">
         <v>1</v>
       </c>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -1,46 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengweishao/PathPlanning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChengWeishao\Desktop\PathPlanning-Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35505A95-2A5C-E44A-92BF-CFC896CBD2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{590EF822-427D-4C95-9837-07C055241F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15800" xr2:uid="{A767D035-5C97-D745-90CD-681903A84426}"/>
+    <workbookView xWindow="28800" yWindow="1620" windowWidth="27315" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,16 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746B783-5C25-5F43-9298-2C1B65524388}">
-  <dimension ref="A1:CB41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP23" sqref="BP23"/>
+    <sheetView tabSelected="1" topLeftCell="AR4" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF31" sqref="BF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -635,8 +627,50 @@
       <c r="CB1" s="1">
         <v>1</v>
       </c>
+      <c r="CC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -650,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -671,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -680,43 +714,43 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
         <v>1</v>
@@ -737,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -761,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1">
         <v>0</v>
@@ -797,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="1">
         <v>0</v>
@@ -812,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
         <v>0</v>
@@ -830,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="BM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2" s="1">
         <v>0</v>
       </c>
       <c r="BP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2" s="1">
         <v>0</v>
@@ -877,8 +911,50 @@
       <c r="CB2" s="1">
         <v>1</v>
       </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -892,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -913,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -922,43 +998,43 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
         <v>1</v>
@@ -979,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="1">
         <v>0</v>
@@ -1003,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1039,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="1">
         <v>0</v>
@@ -1054,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
         <v>0</v>
@@ -1072,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="1">
         <v>0</v>
       </c>
       <c r="BP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="1">
         <v>0</v>
@@ -1119,8 +1195,50 @@
       <c r="CB3" s="1">
         <v>1</v>
       </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1134,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1155,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -1167,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -1221,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
@@ -1245,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1263,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
@@ -1272,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="1">
         <v>0</v>
@@ -1281,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="1">
         <v>0</v>
@@ -1296,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="1">
         <v>0</v>
@@ -1314,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="BM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="1">
         <v>0</v>
       </c>
       <c r="BP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="1">
         <v>0</v>
@@ -1361,8 +1479,50 @@
       <c r="CB4" s="1">
         <v>1</v>
       </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1376,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1406,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1463,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="1">
         <v>0</v>
@@ -1487,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1505,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1514,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -1523,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -1538,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
         <v>0</v>
@@ -1556,16 +1716,16 @@
         <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="1">
         <v>0</v>
       </c>
       <c r="BP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5" s="1">
         <v>0</v>
@@ -1603,43 +1763,85 @@
       <c r="CB5" s="1">
         <v>1</v>
       </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1648,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1705,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1729,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1747,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
@@ -1756,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="1">
         <v>0</v>
@@ -1765,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="1">
         <v>0</v>
@@ -1780,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
         <v>0</v>
@@ -1798,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="1">
         <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="1">
         <v>0</v>
@@ -1845,8 +2047,50 @@
       <c r="CB6" s="1">
         <v>1</v>
       </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1860,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1881,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1890,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1947,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
@@ -1971,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1989,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="1">
         <v>0</v>
@@ -1998,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="1">
         <v>0</v>
@@ -2007,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="1">
         <v>0</v>
@@ -2022,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
         <v>0</v>
@@ -2040,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="1">
         <v>0</v>
@@ -2087,8 +2331,50 @@
       <c r="CB7" s="1">
         <v>1</v>
       </c>
+      <c r="CC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2102,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2123,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2132,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -2189,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -2213,43 +2499,43 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -2264,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
         <v>0</v>
@@ -2282,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" s="1">
         <v>0</v>
       </c>
       <c r="BP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="1">
         <v>0</v>
@@ -2329,8 +2615,50 @@
       <c r="CB8" s="1">
         <v>1</v>
       </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2344,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2365,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2374,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -2431,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
@@ -2455,16 +2783,16 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -2473,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="1">
         <v>0</v>
@@ -2482,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
@@ -2491,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="1">
         <v>0</v>
@@ -2506,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -2524,16 +2852,16 @@
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" s="1">
         <v>0</v>
       </c>
       <c r="BP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="1">
         <v>0</v>
@@ -2571,8 +2899,50 @@
       <c r="CB9" s="1">
         <v>1</v>
       </c>
+      <c r="CC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2586,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2607,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2616,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -2673,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
         <v>0</v>
@@ -2697,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -2715,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
@@ -2724,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="1">
         <v>0</v>
@@ -2733,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1">
         <v>0</v>
@@ -2748,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -2766,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="1">
         <v>0</v>
       </c>
       <c r="BP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="1">
         <v>0</v>
@@ -2813,8 +3183,50 @@
       <c r="CB10" s="1">
         <v>1</v>
       </c>
+      <c r="CC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2828,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2849,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2858,16 +3270,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -2915,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2939,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2957,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="1">
         <v>0</v>
@@ -2966,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="1">
         <v>0</v>
@@ -2975,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1">
         <v>0</v>
@@ -2990,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="1">
         <v>0</v>
@@ -3008,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO11" s="1">
         <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="1">
         <v>0</v>
@@ -3055,8 +3467,50 @@
       <c r="CB11" s="1">
         <v>1</v>
       </c>
+      <c r="CC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3070,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3091,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3100,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -3157,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="1">
         <v>0</v>
@@ -3181,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -3199,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
         <v>0</v>
@@ -3208,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="1">
         <v>0</v>
@@ -3217,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="1">
         <v>0</v>
@@ -3232,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
         <v>0</v>
@@ -3250,16 +3704,16 @@
         <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" s="1">
         <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="1">
         <v>0</v>
@@ -3297,8 +3751,50 @@
       <c r="CB12" s="1">
         <v>1</v>
       </c>
+      <c r="CC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3312,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3333,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3342,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -3399,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="1">
         <v>0</v>
@@ -3423,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
         <v>0</v>
@@ -3459,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1">
         <v>0</v>
@@ -3474,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
         <v>0</v>
@@ -3492,46 +3988,46 @@
         <v>0</v>
       </c>
       <c r="BM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO13" s="1">
         <v>0</v>
       </c>
       <c r="BP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="1">
         <v>0</v>
       </c>
       <c r="BR13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV13" s="1">
         <v>1</v>
       </c>
       <c r="BW13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA13" s="1">
         <v>0</v>
@@ -3539,8 +4035,50 @@
       <c r="CB13" s="1">
         <v>1</v>
       </c>
+      <c r="CC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3554,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3575,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3584,16 +4122,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -3641,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="1">
         <v>0</v>
@@ -3665,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1">
         <v>0</v>
@@ -3701,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1">
         <v>0</v>
@@ -3716,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="1">
         <v>0</v>
@@ -3734,16 +4272,16 @@
         <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO14" s="1">
         <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="1">
         <v>0</v>
@@ -3761,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="BV14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14" s="1">
         <v>0</v>
@@ -3781,8 +4319,50 @@
       <c r="CB14" s="1">
         <v>1</v>
       </c>
+      <c r="CC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3796,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3817,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3826,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -3883,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
@@ -3907,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -3925,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="1">
         <v>0</v>
@@ -3934,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="1">
         <v>0</v>
@@ -3943,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1">
         <v>0</v>
@@ -3958,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
         <v>0</v>
@@ -3976,16 +4556,16 @@
         <v>0</v>
       </c>
       <c r="BM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO15" s="1">
         <v>0</v>
       </c>
       <c r="BP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="1">
         <v>0</v>
@@ -4003,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="BV15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15" s="1">
         <v>0</v>
@@ -4023,8 +4603,50 @@
       <c r="CB15" s="1">
         <v>1</v>
       </c>
+      <c r="CC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4038,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4059,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -4068,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -4125,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -4149,16 +4771,16 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -4167,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="1">
         <v>0</v>
@@ -4176,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="1">
         <v>0</v>
@@ -4185,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1">
         <v>0</v>
@@ -4200,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="1">
         <v>0</v>
@@ -4218,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="BM16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16" s="1">
         <v>0</v>
       </c>
       <c r="BP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="1">
         <v>0</v>
@@ -4245,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="BV16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW16" s="1">
         <v>0</v>
@@ -4265,8 +4887,50 @@
       <c r="CB16" s="1">
         <v>1</v>
       </c>
+      <c r="CC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4280,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4301,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -4310,16 +4974,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -4367,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="1">
         <v>0</v>
@@ -4391,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="1">
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -4409,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="1">
         <v>0</v>
@@ -4418,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="1">
         <v>0</v>
@@ -4427,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1">
         <v>0</v>
@@ -4442,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="1">
         <v>0</v>
@@ -4460,16 +5124,16 @@
         <v>0</v>
       </c>
       <c r="BM17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO17" s="1">
         <v>0</v>
       </c>
       <c r="BP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="1">
         <v>0</v>
@@ -4487,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="BV17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" s="1">
         <v>0</v>
@@ -4507,8 +5171,50 @@
       <c r="CB17" s="1">
         <v>1</v>
       </c>
+      <c r="CC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4522,25 +5228,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -4552,43 +5258,43 @@
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1">
         <v>1</v>
@@ -4600,82 +5306,82 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>1</v>
       </c>
       <c r="AI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="1">
         <v>1</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="1">
         <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="1">
         <v>1</v>
       </c>
       <c r="AW18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>1</v>
       </c>
       <c r="BC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="1">
         <v>0</v>
@@ -4684,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="1">
         <v>0</v>
@@ -4693,34 +5399,34 @@
         <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>1</v>
       </c>
       <c r="BO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="1">
         <v>0</v>
@@ -4732,25 +5438,67 @@
         <v>1</v>
       </c>
       <c r="BW18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB18" s="1">
         <v>1</v>
       </c>
+      <c r="CC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4797,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -4833,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
@@ -4851,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -4875,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -4884,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -4893,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="1">
         <v>0</v>
@@ -4902,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
@@ -4911,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1">
         <v>0</v>
@@ -4947,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" s="1">
         <v>0</v>
@@ -4974,60 +5722,102 @@
         <v>1</v>
       </c>
       <c r="BW19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB19" s="1">
         <v>1</v>
       </c>
+      <c r="CC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5039,34 +5829,34 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -5075,121 +5865,121 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="1">
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20" s="1">
         <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20" s="1">
         <v>0</v>
@@ -5198,19 +5988,19 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV20" s="1">
         <v>1</v>
@@ -5233,8 +6023,50 @@
       <c r="CB20" s="1">
         <v>1</v>
       </c>
+      <c r="CC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5455,28 +6287,70 @@
         <v>0</v>
       </c>
       <c r="BV21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5511,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5697,28 +6571,70 @@
         <v>0</v>
       </c>
       <c r="BV22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5729,163 +6645,163 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="1">
         <v>0</v>
@@ -5894,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="1">
         <v>0</v>
@@ -5903,19 +6819,19 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="1">
         <v>0</v>
@@ -5924,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR23" s="1">
         <v>0</v>
@@ -5933,34 +6849,76 @@
         <v>0</v>
       </c>
       <c r="BT23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5995,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6013,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -6136,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="1">
         <v>0</v>
@@ -6166,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="BQ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" s="1">
         <v>0</v>
@@ -6199,10 +7157,52 @@
         <v>0</v>
       </c>
       <c r="CB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6237,169 +7237,169 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="1">
         <v>1</v>
       </c>
       <c r="BH25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM25" s="1">
         <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO25" s="1">
         <v>0</v>
@@ -6411,40 +7411,82 @@
         <v>1</v>
       </c>
       <c r="BR25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA25" s="1">
         <v>0</v>
       </c>
       <c r="CB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6479,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6497,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -6542,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="1">
         <v>0</v>
@@ -6554,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -6569,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -6584,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="1">
         <v>0</v>
@@ -6599,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="1">
         <v>0</v>
@@ -6614,13 +7656,13 @@
         <v>0</v>
       </c>
       <c r="BE26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="1">
         <v>0</v>
       </c>
       <c r="BG26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="1">
         <v>0</v>
@@ -6629,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="1">
         <v>0</v>
@@ -6641,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO26" s="1">
         <v>0</v>
@@ -6650,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" s="1">
         <v>0</v>
@@ -6683,10 +7725,52 @@
         <v>0</v>
       </c>
       <c r="CB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6721,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6739,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -6784,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="1">
         <v>0</v>
@@ -6796,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -6811,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -6826,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="1">
         <v>0</v>
@@ -6841,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="1">
         <v>0</v>
@@ -6856,13 +7940,13 @@
         <v>0</v>
       </c>
       <c r="BE27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="1">
         <v>0</v>
       </c>
       <c r="BG27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="1">
         <v>0</v>
@@ -6871,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27" s="1">
         <v>0</v>
@@ -6883,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO27" s="1">
         <v>0</v>
@@ -6892,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR27" s="1">
         <v>0</v>
@@ -6925,10 +8009,52 @@
         <v>0</v>
       </c>
       <c r="CB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:80">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6963,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6981,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -7026,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -7035,13 +8161,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -7050,13 +8176,13 @@
         <v>0</v>
       </c>
       <c r="AO28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28" s="1">
         <v>0</v>
@@ -7065,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="1">
         <v>0</v>
@@ -7080,13 +8206,13 @@
         <v>0</v>
       </c>
       <c r="AY28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -7095,28 +8221,28 @@
         <v>0</v>
       </c>
       <c r="BD28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="1">
         <v>0</v>
       </c>
       <c r="BI28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1">
         <v>0</v>
@@ -7125,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO28" s="1">
         <v>0</v>
@@ -7134,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR28" s="1">
         <v>0</v>
@@ -7167,10 +8293,52 @@
         <v>0</v>
       </c>
       <c r="CB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:80">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -7205,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -7223,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -7268,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="1">
         <v>0</v>
@@ -7280,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -7295,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -7310,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="1">
         <v>0</v>
@@ -7325,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -7340,13 +8508,13 @@
         <v>0</v>
       </c>
       <c r="BE29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="1">
         <v>0</v>
       </c>
       <c r="BG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="1">
         <v>0</v>
@@ -7355,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK29" s="1">
         <v>0</v>
@@ -7367,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO29" s="1">
         <v>0</v>
@@ -7376,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="1">
         <v>0</v>
@@ -7409,10 +8577,52 @@
         <v>0</v>
       </c>
       <c r="CB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:80">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -7447,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -7465,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -7510,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -7522,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -7537,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -7552,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30" s="1">
         <v>0</v>
@@ -7567,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -7582,13 +8792,13 @@
         <v>0</v>
       </c>
       <c r="BE30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="1">
         <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="1">
         <v>0</v>
@@ -7597,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK30" s="1">
         <v>0</v>
@@ -7609,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO30" s="1">
         <v>0</v>
@@ -7618,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30" s="1">
         <v>0</v>
@@ -7651,10 +8861,52 @@
         <v>0</v>
       </c>
       <c r="CB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:80">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -7689,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -7707,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -7752,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -7761,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -7776,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="AO31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31" s="1">
         <v>0</v>
@@ -7791,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="1">
         <v>0</v>
@@ -7806,13 +9058,13 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -7821,28 +9073,28 @@
         <v>0</v>
       </c>
       <c r="BD31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="1">
         <v>0</v>
       </c>
       <c r="BI31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1">
         <v>0</v>
@@ -7851,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="BN31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO31" s="1">
         <v>0</v>
@@ -7860,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="BQ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" s="1">
         <v>0</v>
@@ -7893,10 +9145,52 @@
         <v>0</v>
       </c>
       <c r="CB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:80">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -7931,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -7949,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -7994,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -8006,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -8021,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -8036,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32" s="1">
         <v>0</v>
@@ -8051,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="1">
         <v>0</v>
@@ -8066,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="BE32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="1">
         <v>0</v>
       </c>
       <c r="BG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="1">
         <v>0</v>
@@ -8081,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK32" s="1">
         <v>0</v>
@@ -8093,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO32" s="1">
         <v>0</v>
@@ -8102,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="BQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR32" s="1">
         <v>0</v>
@@ -8135,10 +9429,52 @@
         <v>0</v>
       </c>
       <c r="CB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:80">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -8173,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8191,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -8236,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -8248,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -8263,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -8278,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AU33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="1">
         <v>0</v>
@@ -8293,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="1">
         <v>0</v>
@@ -8308,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="BE33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="1">
         <v>0</v>
       </c>
       <c r="BG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="1">
         <v>0</v>
@@ -8323,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" s="1">
         <v>0</v>
@@ -8335,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33" s="1">
         <v>0</v>
@@ -8344,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="BQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR33" s="1">
         <v>0</v>
@@ -8377,10 +9713,52 @@
         <v>0</v>
       </c>
       <c r="CB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:80">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -8415,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8433,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -8478,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -8487,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -8502,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="AO34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34" s="1">
         <v>0</v>
@@ -8517,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="1">
         <v>0</v>
@@ -8532,13 +9910,13 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -8547,28 +9925,28 @@
         <v>0</v>
       </c>
       <c r="BD34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="1">
         <v>0</v>
       </c>
       <c r="BI34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL34" s="1">
         <v>0</v>
@@ -8577,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO34" s="1">
         <v>0</v>
@@ -8586,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="BQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR34" s="1">
         <v>0</v>
@@ -8619,10 +9997,52 @@
         <v>0</v>
       </c>
       <c r="CB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:80">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -8657,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8675,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -8720,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="1">
         <v>0</v>
@@ -8732,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -8747,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -8762,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35" s="1">
         <v>0</v>
@@ -8777,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -8792,13 +10212,13 @@
         <v>0</v>
       </c>
       <c r="BE35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35" s="1">
         <v>0</v>
       </c>
       <c r="BG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="1">
         <v>0</v>
@@ -8807,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35" s="1">
         <v>0</v>
@@ -8819,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" s="1">
         <v>0</v>
@@ -8828,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="BQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35" s="1">
         <v>0</v>
@@ -8861,10 +10281,52 @@
         <v>0</v>
       </c>
       <c r="CB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:80">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -8899,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8917,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -8962,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -8974,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -8989,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -9004,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="1">
         <v>0</v>
@@ -9019,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -9034,13 +10496,13 @@
         <v>0</v>
       </c>
       <c r="BE36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF36" s="1">
         <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="1">
         <v>0</v>
@@ -9049,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK36" s="1">
         <v>0</v>
@@ -9061,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO36" s="1">
         <v>0</v>
@@ -9070,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="BQ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR36" s="1">
         <v>0</v>
@@ -9103,10 +10565,52 @@
         <v>0</v>
       </c>
       <c r="CB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:80">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -9141,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9159,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -9204,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="1">
         <v>0</v>
@@ -9213,13 +10717,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -9228,13 +10732,13 @@
         <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" s="1">
         <v>0</v>
@@ -9243,13 +10747,13 @@
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="1">
         <v>0</v>
@@ -9258,13 +10762,13 @@
         <v>0</v>
       </c>
       <c r="AY37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -9273,28 +10777,28 @@
         <v>0</v>
       </c>
       <c r="BD37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="1">
         <v>0</v>
       </c>
       <c r="BI37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" s="1">
         <v>0</v>
@@ -9303,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" s="1">
         <v>0</v>
@@ -9312,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="BQ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR37" s="1">
         <v>0</v>
@@ -9345,10 +10849,52 @@
         <v>0</v>
       </c>
       <c r="CB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:80">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -9383,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9401,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -9446,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="1">
         <v>0</v>
@@ -9458,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -9473,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -9488,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="AU38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="1">
         <v>0</v>
@@ -9503,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="1">
         <v>0</v>
@@ -9518,13 +11064,13 @@
         <v>0</v>
       </c>
       <c r="BE38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38" s="1">
         <v>0</v>
       </c>
       <c r="BG38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="1">
         <v>0</v>
@@ -9533,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK38" s="1">
         <v>0</v>
@@ -9545,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38" s="1">
         <v>0</v>
@@ -9554,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="BQ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR38" s="1">
         <v>0</v>
@@ -9587,10 +11133,52 @@
         <v>0</v>
       </c>
       <c r="CB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:80">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -9625,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9643,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -9688,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -9700,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -9715,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -9730,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="1">
         <v>0</v>
@@ -9745,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
@@ -9760,13 +11348,13 @@
         <v>0</v>
       </c>
       <c r="BE39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF39" s="1">
         <v>0</v>
       </c>
       <c r="BG39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="1">
         <v>0</v>
@@ -9775,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK39" s="1">
         <v>0</v>
@@ -9787,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39" s="1">
         <v>0</v>
@@ -9796,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="BQ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR39" s="1">
         <v>0</v>
@@ -9829,10 +11417,52 @@
         <v>0</v>
       </c>
       <c r="CB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:80">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -9867,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9885,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -9930,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40" s="1">
         <v>0</v>
@@ -9939,13 +11569,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -9954,13 +11584,13 @@
         <v>0</v>
       </c>
       <c r="AO40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40" s="1">
         <v>0</v>
@@ -9969,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="1">
         <v>0</v>
@@ -9984,13 +11614,13 @@
         <v>0</v>
       </c>
       <c r="AY40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -9999,28 +11629,28 @@
         <v>0</v>
       </c>
       <c r="BD40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="1">
         <v>0</v>
       </c>
       <c r="BI40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL40" s="1">
         <v>0</v>
@@ -10029,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO40" s="1">
         <v>0</v>
@@ -10038,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="BQ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR40" s="1">
         <v>0</v>
@@ -10071,248 +11701,900 @@
         <v>0</v>
       </c>
       <c r="CB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:80">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
       </c>
       <c r="M41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="1">
         <v>1</v>
       </c>
       <c r="AH41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="1">
         <v>1</v>
       </c>
       <c r="BO41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO41" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP43" s="1">
         <v>1</v>
       </c>
     </row>
